--- a/data/trans_orig/IMC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,43</t>
+          <t>25,93; 26,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,73; 27,4</t>
+          <t>26,75; 27,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,41; 27,08</t>
+          <t>26,43; 27,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,63; 27,39</t>
+          <t>26,61; 27,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,34; 25,99</t>
+          <t>25,33; 26,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,78; 26,59</t>
+          <t>25,82; 26,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,73; 26,5</t>
+          <t>25,71; 26,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,98; 26,61</t>
+          <t>26,02; 26,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,69; 26,13</t>
+          <t>25,71; 26,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 26,89</t>
+          <t>26,38; 26,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,18; 26,68</t>
+          <t>26,16; 26,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 26,89</t>
+          <t>26,42; 26,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,11; 26,61</t>
+          <t>26,1; 26,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 26,98</t>
+          <t>26,44; 26,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,26; 26,87</t>
+          <t>26,29; 26,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 28,61</t>
+          <t>26,38; 28,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,33; 25,95</t>
+          <t>25,32; 25,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,15; 26,83</t>
+          <t>26,13; 26,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,95; 26,64</t>
+          <t>25,98; 26,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,5; 26,0</t>
+          <t>25,47; 25,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,77; 26,19</t>
+          <t>25,79; 26,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 26,79</t>
+          <t>26,37; 26,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 26,63</t>
+          <t>26,19; 26,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 27,67</t>
+          <t>26,05; 27,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,49; 26,06</t>
+          <t>25,49; 26,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,02; 26,62</t>
+          <t>26,03; 26,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,88; 26,56</t>
+          <t>25,93; 26,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,29; 27,13</t>
+          <t>26,21; 27,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,02; 25,67</t>
+          <t>24,94; 25,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,96; 26,74</t>
+          <t>25,97; 26,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,14; 25,93</t>
+          <t>25,11; 25,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,68; 31,07</t>
+          <t>25,69; 31,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,32; 25,77</t>
+          <t>25,33; 25,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,09; 26,58</t>
+          <t>26,09; 26,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,63; 26,15</t>
+          <t>25,61; 26,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 29,63</t>
+          <t>26,15; 29,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,54; 26,02</t>
+          <t>25,53; 26,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,31; 26,86</t>
+          <t>26,34; 26,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 26,69</t>
+          <t>26,16; 26,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,31; 26,95</t>
+          <t>26,35; 26,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,68; 25,3</t>
+          <t>24,72; 25,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,74; 26,37</t>
+          <t>25,72; 26,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,69; 26,34</t>
+          <t>25,66; 26,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 26,04</t>
+          <t>25,5; 26,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,17; 25,55</t>
+          <t>25,16; 25,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,1; 26,52</t>
+          <t>26,11; 26,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 26,41</t>
+          <t>25,98; 26,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 26,39</t>
+          <t>25,99; 26,39</t>
         </is>
       </c>
     </row>
@@ -1284,42 +1284,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,15</t>
+          <t>25,89; 26,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,53; 26,8</t>
+          <t>26,51; 26,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,32; 26,63</t>
+          <t>26,32; 26,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,63; 27,82</t>
+          <t>26,61; 27,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,22; 25,56</t>
+          <t>25,22; 25,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,07; 26,45</t>
+          <t>26,1; 26,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,82; 26,15</t>
+          <t>25,81; 26,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,83; 27,91</t>
+          <t>25,82; 27,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,33; 26,58</t>
+          <t>26,34; 26,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,11; 26,34</t>
+          <t>26,09; 26,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 27,43</t>
+          <t>26,28; 27,48</t>
         </is>
       </c>
     </row>
